--- a/biology/Médecine/Gérard_Pommier/Gérard_Pommier.xlsx
+++ b/biology/Médecine/Gérard_Pommier/Gérard_Pommier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Pommier</t>
+          <t>Gérard_Pommier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard Pommier, né le 17 août 1941 et mort le 1er août 2023[1],[2], est un psychiatre et un psychanalyste français[3]. Il est également professeur des universités émérite à l’université Paris 7. Il dirige la revue La Clinique Lacanienne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Pommier, né le 17 août 1941 et mort le 1er août 2023 est un psychiatre et un psychanalyste français. Il est également professeur des universités émérite à l’université Paris 7. Il dirige la revue La Clinique Lacanienne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Pommier</t>
+          <t>Gérard_Pommier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Formation et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard Pommier, médecin, interne des hôpitaux psychiatriques (1973), obtient un certificat d'études spécialisées en psychiatrie en 1991 et est médecin chef-adjoint à Étampes. Durant ses études, il est membre de l'UNEF dite SE[4] et élu à son bureau national de 1971 à 1972[5]. Il soutient en 2000 une thèse de doctorat de 3e cycle en psychopathologie clinique intitulée L'écriture comme solution dans la psychose[6], à l'université de Provence, sous la direction de Roland Gori et une habilitation universitaire en 2003 publiée sous le titre Comment les neurosciences démontrent la psychanalyse[7]. Il réalise une carrière universitaire notamment à Strasbourg.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Pommier, médecin, interne des hôpitaux psychiatriques (1973), obtient un certificat d'études spécialisées en psychiatrie en 1991 et est médecin chef-adjoint à Étampes. Durant ses études, il est membre de l'UNEF dite SE et élu à son bureau national de 1971 à 1972. Il soutient en 2000 une thèse de doctorat de 3e cycle en psychopathologie clinique intitulée L'écriture comme solution dans la psychose, à l'université de Provence, sous la direction de Roland Gori et une habilitation universitaire en 2003 publiée sous le titre Comment les neurosciences démontrent la psychanalyse. Il réalise une carrière universitaire notamment à Strasbourg.
 Gérard Pommier rencontre Jacques Lacan lors des séminaires à l’hôpital Sainte-Anne. Alors qu’il est déjà psychiatre et a suivi une analyse, il décide de reprendre une analyse avec Lacan.
 Par la suite, il effectue des supervisions avec Piera Aulagnier et Françoise Dolto. Il est membre de l'association Espace analytique et cofondateur de la Fondation européenne pour la psychanalyse. Il dirige la revue La Clinique Lacanienne et est membre du comité de lecture de Cliniques méditerranéennes.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Pommier</t>
+          <t>Gérard_Pommier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1983 : D'une logique de la psychose, Paris, (Eres). Franco Angeli (Milan). Catalogos (Barcelone, Buenos Aires). (286 p.)
 1985 : L'Exception féminine, essai sur les impasses de la jouissance, Paris, Aubier. Jorge Zahar (Rio de Janeiro). Nueva Vision (Buenos Aires). (266 p.)
